--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>13.757307</v>
+        <v>0.106871</v>
       </c>
       <c r="N2">
-        <v>41.27192100000001</v>
+        <v>0.320613</v>
       </c>
       <c r="O2">
-        <v>0.3428896105196261</v>
+        <v>0.00191029240916268</v>
       </c>
       <c r="P2">
-        <v>0.3428896105196261</v>
+        <v>0.00191029240916268</v>
       </c>
       <c r="Q2">
-        <v>2688.664645137423</v>
+        <v>21.11165753089366</v>
       </c>
       <c r="R2">
-        <v>24197.98180623681</v>
+        <v>190.004917778043</v>
       </c>
       <c r="S2">
-        <v>0.1061497677485166</v>
+        <v>0.0006473415072658724</v>
       </c>
       <c r="T2">
-        <v>0.1061497677485166</v>
+        <v>0.0006473415072658723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.019327</v>
+        <v>26.16363266666667</v>
       </c>
       <c r="N3">
-        <v>0.057981</v>
+        <v>78.490898</v>
       </c>
       <c r="O3">
-        <v>0.0004817096472814639</v>
+        <v>0.467668393476753</v>
       </c>
       <c r="P3">
-        <v>0.0004817096472814639</v>
+        <v>0.467668393476753</v>
       </c>
       <c r="Q3">
-        <v>3.777179763203</v>
+        <v>5168.452177136631</v>
       </c>
       <c r="R3">
-        <v>33.994617868827</v>
+        <v>46516.06959422967</v>
       </c>
       <c r="S3">
-        <v>0.000149124865882224</v>
+        <v>0.1584789644149546</v>
       </c>
       <c r="T3">
-        <v>0.000149124865882224</v>
+        <v>0.1584789644149546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>26.34504533333333</v>
+        <v>0.019327</v>
       </c>
       <c r="N4">
-        <v>79.03513600000001</v>
+        <v>0.057981</v>
       </c>
       <c r="O4">
-        <v>0.6566286798330924</v>
+        <v>0.0003454652935958971</v>
       </c>
       <c r="P4">
-        <v>0.6566286798330924</v>
+        <v>0.0003454652935958971</v>
       </c>
       <c r="Q4">
-        <v>5148.754182942635</v>
+        <v>3.817920718432333</v>
       </c>
       <c r="R4">
-        <v>46338.78764648372</v>
+        <v>34.361286465891</v>
       </c>
       <c r="S4">
-        <v>0.2032752807985949</v>
+        <v>0.0001170679539905822</v>
       </c>
       <c r="T4">
-        <v>0.2032752807985949</v>
+        <v>0.0001170679539905822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.82725266666667</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>239.481758</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.757307</v>
+        <v>29.65500766666667</v>
       </c>
       <c r="N5">
-        <v>41.27192100000001</v>
+        <v>88.965023</v>
       </c>
       <c r="O5">
-        <v>0.3428896105196261</v>
+        <v>0.5300758488204884</v>
       </c>
       <c r="P5">
-        <v>0.3428896105196261</v>
+        <v>0.5300758488204884</v>
       </c>
       <c r="Q5">
-        <v>1098.208021901902</v>
+        <v>5858.150161734172</v>
       </c>
       <c r="R5">
-        <v>9883.872197117118</v>
+        <v>52723.35145560755</v>
       </c>
       <c r="S5">
-        <v>0.04335777861894205</v>
+        <v>0.1796270022823872</v>
       </c>
       <c r="T5">
-        <v>0.04335777861894206</v>
+        <v>0.1796270022823871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>239.481758</v>
       </c>
       <c r="I6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.019327</v>
+        <v>0.106871</v>
       </c>
       <c r="N6">
-        <v>0.057981</v>
+        <v>0.320613</v>
       </c>
       <c r="O6">
-        <v>0.0004817096472814639</v>
+        <v>0.00191029240916268</v>
       </c>
       <c r="P6">
-        <v>0.0004817096472814639</v>
+        <v>0.00191029240916268</v>
       </c>
       <c r="Q6">
-        <v>1.542821312288667</v>
+        <v>8.531218319739333</v>
       </c>
       <c r="R6">
-        <v>13.885391810598</v>
+        <v>76.78096487765399</v>
       </c>
       <c r="S6">
-        <v>6.091132424160433E-05</v>
+        <v>0.0002615906267820416</v>
       </c>
       <c r="T6">
-        <v>6.091132424160434E-05</v>
+        <v>0.0002615906267820415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.34504533333333</v>
+        <v>26.16363266666667</v>
       </c>
       <c r="N7">
-        <v>79.03513600000001</v>
+        <v>78.490898</v>
       </c>
       <c r="O7">
-        <v>0.6566286798330924</v>
+        <v>0.467668393476753</v>
       </c>
       <c r="P7">
-        <v>0.6566286798330924</v>
+        <v>0.467668393476753</v>
       </c>
       <c r="Q7">
-        <v>2103.052590338787</v>
+        <v>2088.570915559854</v>
       </c>
       <c r="R7">
-        <v>18927.47331304909</v>
+        <v>18797.13824003868</v>
       </c>
       <c r="S7">
-        <v>0.08302952338482081</v>
+        <v>0.06404133083968928</v>
       </c>
       <c r="T7">
-        <v>0.08302952338482082</v>
+        <v>0.06404133083968927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>162.5116576666667</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>487.534973</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.757307</v>
+        <v>0.019327</v>
       </c>
       <c r="N8">
-        <v>41.27192100000001</v>
+        <v>0.057981</v>
       </c>
       <c r="O8">
-        <v>0.3428896105196261</v>
+        <v>0.0003454652935958971</v>
       </c>
       <c r="P8">
-        <v>0.3428896105196261</v>
+        <v>0.0003454652935958971</v>
       </c>
       <c r="Q8">
-        <v>2235.722765599237</v>
+        <v>1.542821312288667</v>
       </c>
       <c r="R8">
-        <v>20121.50489039314</v>
+        <v>13.885391810598</v>
       </c>
       <c r="S8">
-        <v>0.08826740543772812</v>
+        <v>4.730714640844119E-05</v>
       </c>
       <c r="T8">
-        <v>0.08826740543772814</v>
+        <v>4.730714640844118E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>162.5116576666667</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>487.534973</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.019327</v>
+        <v>29.65500766666667</v>
       </c>
       <c r="N9">
-        <v>0.057981</v>
+        <v>88.965023</v>
       </c>
       <c r="O9">
-        <v>0.0004817096472814639</v>
+        <v>0.5300758488204884</v>
       </c>
       <c r="P9">
-        <v>0.0004817096472814639</v>
+        <v>0.5300758488204884</v>
       </c>
       <c r="Q9">
-        <v>3.140862807723667</v>
+        <v>2367.277789838937</v>
       </c>
       <c r="R9">
-        <v>28.267765269513</v>
+        <v>21305.50010855043</v>
       </c>
       <c r="S9">
-        <v>0.0001240027677578883</v>
+        <v>0.07258725044913572</v>
       </c>
       <c r="T9">
-        <v>0.0001240027677578883</v>
+        <v>0.07258725044913569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H10">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>26.34504533333333</v>
+        <v>0.106871</v>
       </c>
       <c r="N10">
-        <v>79.03513600000001</v>
+        <v>0.320613</v>
       </c>
       <c r="O10">
-        <v>0.6566286798330924</v>
+        <v>0.00191029240916268</v>
       </c>
       <c r="P10">
-        <v>0.6566286798330924</v>
+        <v>0.00191029240916268</v>
       </c>
       <c r="Q10">
-        <v>4281.376988423482</v>
+        <v>15.905014269207</v>
       </c>
       <c r="R10">
-        <v>38532.39289581133</v>
+        <v>143.145128422863</v>
       </c>
       <c r="S10">
-        <v>0.1690308137859147</v>
+        <v>0.0004876914991182994</v>
       </c>
       <c r="T10">
-        <v>0.1690308137859147</v>
+        <v>0.0004876914991182994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.73857866666668</v>
+        <v>148.824417</v>
       </c>
       <c r="H11">
-        <v>101.215736</v>
+        <v>446.473251</v>
       </c>
       <c r="I11">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J11">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.757307</v>
+        <v>26.16363266666667</v>
       </c>
       <c r="N11">
-        <v>41.27192100000001</v>
+        <v>78.490898</v>
       </c>
       <c r="O11">
-        <v>0.3428896105196261</v>
+        <v>0.467668393476753</v>
       </c>
       <c r="P11">
-        <v>0.3428896105196261</v>
+        <v>0.467668393476753</v>
       </c>
       <c r="Q11">
-        <v>464.1519844609842</v>
+        <v>3893.787378218823</v>
       </c>
       <c r="R11">
-        <v>4177.367860148857</v>
+        <v>35044.0864039694</v>
       </c>
       <c r="S11">
-        <v>0.01832494262148052</v>
+        <v>0.1193942345218738</v>
       </c>
       <c r="T11">
-        <v>0.01832494262148052</v>
+        <v>0.1193942345218738</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.73857866666668</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>101.215736</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,27 +1184,27 @@
         <v>0.057981</v>
       </c>
       <c r="O12">
-        <v>0.0004817096472814639</v>
+        <v>0.0003454652935958971</v>
       </c>
       <c r="P12">
-        <v>0.0004817096472814639</v>
+        <v>0.0003454652935958971</v>
       </c>
       <c r="Q12">
-        <v>0.6520655098906669</v>
+        <v>2.876329507359</v>
       </c>
       <c r="R12">
-        <v>5.868589589016001</v>
+        <v>25.886965566231</v>
       </c>
       <c r="S12">
-        <v>2.57438585942259E-05</v>
+        <v>8.819617673138055E-05</v>
       </c>
       <c r="T12">
-        <v>2.57438585942259E-05</v>
+        <v>8.819617673138055E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.73857866666668</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>101.215736</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.34504533333333</v>
+        <v>29.65500766666667</v>
       </c>
       <c r="N13">
-        <v>79.03513600000001</v>
+        <v>88.965023</v>
       </c>
       <c r="O13">
-        <v>0.6566286798330924</v>
+        <v>0.5300758488204884</v>
       </c>
       <c r="P13">
-        <v>0.6566286798330924</v>
+        <v>0.5300758488204884</v>
       </c>
       <c r="Q13">
-        <v>888.8443844555666</v>
+        <v>4413.389227122198</v>
       </c>
       <c r="R13">
-        <v>7999.599460100098</v>
+        <v>39720.50304409977</v>
       </c>
       <c r="S13">
-        <v>0.03509200195166369</v>
+        <v>0.1353266568603394</v>
       </c>
       <c r="T13">
-        <v>0.03509200195166369</v>
+        <v>0.1353266568603394</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>159.7910413333333</v>
+        <v>35.426853</v>
       </c>
       <c r="H14">
-        <v>479.373124</v>
+        <v>106.280559</v>
       </c>
       <c r="I14">
-        <v>0.2531127028358625</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J14">
-        <v>0.2531127028358626</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>13.757307</v>
+        <v>0.106871</v>
       </c>
       <c r="N14">
-        <v>41.27192100000001</v>
+        <v>0.320613</v>
       </c>
       <c r="O14">
-        <v>0.3428896105196261</v>
+        <v>0.00191029240916268</v>
       </c>
       <c r="P14">
-        <v>0.3428896105196261</v>
+        <v>0.00191029240916268</v>
       </c>
       <c r="Q14">
-        <v>2198.294411472356</v>
+        <v>3.786103206963</v>
       </c>
       <c r="R14">
-        <v>19784.64970325121</v>
+        <v>34.07492886266699</v>
       </c>
       <c r="S14">
-        <v>0.08678971609295877</v>
+        <v>0.0001160923415450949</v>
       </c>
       <c r="T14">
-        <v>0.08678971609295878</v>
+        <v>0.0001160923415450949</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,108 +1346,418 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>159.7910413333333</v>
+        <v>35.426853</v>
       </c>
       <c r="H15">
-        <v>479.373124</v>
+        <v>106.280559</v>
       </c>
       <c r="I15">
-        <v>0.2531127028358625</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J15">
-        <v>0.2531127028358626</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.019327</v>
+        <v>26.16363266666667</v>
       </c>
       <c r="N15">
-        <v>0.057981</v>
+        <v>78.490898</v>
       </c>
       <c r="O15">
-        <v>0.0004817096472814639</v>
+        <v>0.467668393476753</v>
       </c>
       <c r="P15">
-        <v>0.0004817096472814639</v>
+        <v>0.467668393476753</v>
       </c>
       <c r="Q15">
-        <v>3.088281455849334</v>
+        <v>926.8951684279981</v>
       </c>
       <c r="R15">
-        <v>27.794533102644</v>
+        <v>8342.056515851982</v>
       </c>
       <c r="S15">
-        <v>0.0001219268308055213</v>
+        <v>0.02842115615647901</v>
       </c>
       <c r="T15">
-        <v>0.0001219268308055213</v>
+        <v>0.02842115615647901</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>35.426853</v>
+      </c>
+      <c r="H16">
+        <v>106.280559</v>
+      </c>
+      <c r="I16">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J16">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.019327</v>
+      </c>
+      <c r="N16">
+        <v>0.057981</v>
+      </c>
+      <c r="O16">
+        <v>0.0003454652935958971</v>
+      </c>
+      <c r="P16">
+        <v>0.0003454652935958971</v>
+      </c>
+      <c r="Q16">
+        <v>0.684694787931</v>
+      </c>
+      <c r="R16">
+        <v>6.162253091378999</v>
+      </c>
+      <c r="S16">
+        <v>2.099462609166236E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.099462609166236E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>35.426853</v>
+      </c>
+      <c r="H17">
+        <v>106.280559</v>
+      </c>
+      <c r="I17">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J17">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>29.65500766666667</v>
+      </c>
+      <c r="N17">
+        <v>88.965023</v>
+      </c>
+      <c r="O17">
+        <v>0.5300758488204884</v>
+      </c>
+      <c r="P17">
+        <v>0.5300758488204884</v>
+      </c>
+      <c r="Q17">
+        <v>1050.583597320873</v>
+      </c>
+      <c r="R17">
+        <v>9455.252375887856</v>
+      </c>
+      <c r="S17">
+        <v>0.03221378370709616</v>
+      </c>
+      <c r="T17">
+        <v>0.03221378370709616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>159.7910413333333</v>
-      </c>
-      <c r="H16">
-        <v>479.373124</v>
-      </c>
-      <c r="I16">
-        <v>0.2531127028358625</v>
-      </c>
-      <c r="J16">
-        <v>0.2531127028358626</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>26.34504533333333</v>
-      </c>
-      <c r="N16">
-        <v>79.03513600000001</v>
-      </c>
-      <c r="O16">
-        <v>0.6566286798330924</v>
-      </c>
-      <c r="P16">
-        <v>0.6566286798330924</v>
-      </c>
-      <c r="Q16">
-        <v>4209.702227787207</v>
-      </c>
-      <c r="R16">
-        <v>37887.32005008487</v>
-      </c>
-      <c r="S16">
-        <v>0.1662010599120982</v>
-      </c>
-      <c r="T16">
-        <v>0.1662010599120982</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H18">
+        <v>363.974446</v>
+      </c>
+      <c r="I18">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J18">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.106871</v>
+      </c>
+      <c r="N18">
+        <v>0.320613</v>
+      </c>
+      <c r="O18">
+        <v>0.00191029240916268</v>
+      </c>
+      <c r="P18">
+        <v>0.00191029240916268</v>
+      </c>
+      <c r="Q18">
+        <v>12.96610433948867</v>
+      </c>
+      <c r="R18">
+        <v>116.694939055398</v>
+      </c>
+      <c r="S18">
+        <v>0.0003975764344513721</v>
+      </c>
+      <c r="T18">
+        <v>0.0003975764344513721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H19">
+        <v>363.974446</v>
+      </c>
+      <c r="I19">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J19">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>26.16363266666667</v>
+      </c>
+      <c r="N19">
+        <v>78.490898</v>
+      </c>
+      <c r="O19">
+        <v>0.467668393476753</v>
+      </c>
+      <c r="P19">
+        <v>0.467668393476753</v>
+      </c>
+      <c r="Q19">
+        <v>3174.297901732501</v>
+      </c>
+      <c r="R19">
+        <v>28568.68111559251</v>
+      </c>
+      <c r="S19">
+        <v>0.09733270754375629</v>
+      </c>
+      <c r="T19">
+        <v>0.09733270754375628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H20">
+        <v>363.974446</v>
+      </c>
+      <c r="I20">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J20">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.019327</v>
+      </c>
+      <c r="N20">
+        <v>0.057981</v>
+      </c>
+      <c r="O20">
+        <v>0.0003454652935958971</v>
+      </c>
+      <c r="P20">
+        <v>0.0003454652935958971</v>
+      </c>
+      <c r="Q20">
+        <v>2.344844705947333</v>
+      </c>
+      <c r="R20">
+        <v>21.103602353526</v>
+      </c>
+      <c r="S20">
+        <v>7.189939037383078E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.189939037383077E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H21">
+        <v>363.974446</v>
+      </c>
+      <c r="I21">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J21">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>29.65500766666667</v>
+      </c>
+      <c r="N21">
+        <v>88.965023</v>
+      </c>
+      <c r="O21">
+        <v>0.5300758488204884</v>
+      </c>
+      <c r="P21">
+        <v>0.5300758488204884</v>
+      </c>
+      <c r="Q21">
+        <v>3597.888328866918</v>
+      </c>
+      <c r="R21">
+        <v>32380.99495980226</v>
+      </c>
+      <c r="S21">
+        <v>0.11032115552153</v>
+      </c>
+      <c r="T21">
+        <v>0.11032115552153</v>
       </c>
     </row>
   </sheetData>
